--- a/xlsx/行为遗传学_intext.xlsx
+++ b/xlsx/行为遗传学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="616">
   <si>
     <t>行为遗传学</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>政策_政策_计划_行为遗传学</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>收養</t>
+    <t>收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%9F%BA%E5%9B%A0</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E9%AB%98%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>法蘭西斯·高爾頓</t>
+    <t>法兰西斯·高尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E6%96%AF%C2%B7%E9%81%94%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>查理斯·達爾文</t>
+    <t>查理斯·达尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%BB%84%E5%AD%A6</t>
@@ -137,9 +137,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0</t>
   </si>
   <si>
-    <t>遗传</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Science_(journal)</t>
   </si>
   <si>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>基因組</t>
+    <t>基因组</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Classical_genetics</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態遺傳學</t>
+    <t>生态遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>分子遺傳學</t>
+    <t>分子遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A7%80%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>表觀遺傳學</t>
+    <t>表观遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6%E5%AE%B6</t>
@@ -305,9 +302,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%B5%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>基因組學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AF%86%E7%A0%81</t>
   </si>
   <si>
@@ -317,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學遺傳學</t>
+    <t>医学遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E9%80%B2%E5%8C%96</t>
   </si>
   <si>
-    <t>分子進化</t>
+    <t>分子进化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reverse_genetics</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E7%B3%BB%E8%AD%9C%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳系譜學</t>
+    <t>遗传系谱学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算神經科學</t>
+    <t>计算神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E6%8E%A5%E7%BB%84%E5%AD%A6</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經化學</t>
+    <t>神经化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%A6</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E6%AF%92%E7%B4%A0</t>
   </si>
   <si>
-    <t>神經毒素</t>
+    <t>神经毒素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E9%80%92%E8%B4%A8</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%A5%9E%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為神經學</t>
+    <t>行为神经学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clinical_neurophysiology</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
+    <t>神经内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%9C%BC%E7%A7%91%E5%AD%A6</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經學</t>
+    <t>神经学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropathology</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神經外科</t>
+    <t>神经外科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurovirology</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間生物學</t>
+    <t>时间生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_neuroscience</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經經濟學</t>
+    <t>神经经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurophilosoph</t>
@@ -731,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Neuroendocrinology</t>
   </si>
   <si>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E9%87%8D%E7%97%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經重症學</t>
+    <t>神经重症学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurooncology</t>
@@ -827,9 +818,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Affective_neuroscience</t>
   </si>
   <si>
@@ -923,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8%E8%88%87%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學與現象學</t>
+    <t>神经科学与现象学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurophilosophy</t>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%AA%BF%E7%AF%80</t>
   </si>
   <si>
-    <t>神經調節</t>
+    <t>神经调节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Book:Neuroscience</t>
@@ -1013,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>動物認知</t>
+    <t>动物认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E4%BA%A4%E6%B5%81</t>
   </si>
   <si>
-    <t>動物交流</t>
+    <t>动物交流</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Animal_consciousness</t>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>人與動物關係學</t>
+    <t>人与动物关系学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Behavioural_ecology</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%83%BD</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%BE%BE%E5%B0%94%E6%96%87</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%8F%AF%C2%B7%E5%A8%81%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>艾德華·威爾森</t>
+    <t>艾德华·威尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%8F%B2</t>
@@ -1151,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural_psychology</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -1199,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -1229,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學心理學</t>
+    <t>哲学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學心理學</t>
+    <t>科学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E7%BE%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人本主義心理學</t>
+    <t>人本主义心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Affective_science</t>
@@ -1265,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>行為主義</t>
+    <t>行为主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神分析學</t>
+    <t>精神分析学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -1283,37 +1271,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>心理測驗</t>
+    <t>心理测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%B0%8E</t>
   </si>
   <si>
-    <t>輔導</t>
+    <t>辅导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -1325,19 +1313,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -1367,13 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>牧師心理學</t>
+    <t>牧师心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suicidology</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychological_research_methods</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>動物測試</t>
+    <t>动物测试</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Archival_research</t>
@@ -1439,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%AE%B9%E5%88%86%E6%9E%90%E6%B3%95</t>
   </si>
   <si>
-    <t>內容分析法</t>
+    <t>内容分析法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%AF%95%E9%AA%8C</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%AB%87</t>
   </si>
   <si>
-    <t>面談</t>
+    <t>面谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F</t>
@@ -1481,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>社會統計調查</t>
+    <t>社会统计调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%8A%9B</t>
@@ -1505,9 +1493,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>行为主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E8%A1%8C%E4%B8%BA%E7%96%97%E6%B3%95</t>
   </si>
   <si>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Descriptive_psychology</t>
@@ -1559,9 +1544,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>人本主义心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Narrative_therapy</t>
   </si>
   <si>
@@ -1589,13 +1571,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
   </si>
   <si>
-    <t>精神分析学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%80%8B%E4%BA%BA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>超個人心理學</t>
+    <t>超个人心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1631,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%AE%91%E6%AF%94</t>
   </si>
   <si>
-    <t>約翰·鮑比</t>
+    <t>约翰·鲍比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E5%8D%A1%E7%89%B9%E5%B0%94</t>
@@ -1691,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7L%C2%B7%E8%B5%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>克拉克·L·赫爾</t>
+    <t>克拉克·L·赫尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
@@ -1763,13 +1742,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E7%9A%AE%E4%BA%9E%E5%82%91</t>
   </si>
   <si>
-    <t>讓·皮亞傑</t>
+    <t>让·皮亚杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E7%BE%85%E5%93%B2%E6%96%AF</t>
   </si>
   <si>
-    <t>卡爾·羅哲斯</t>
+    <t>卡尔·罗哲斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanley_Schachter</t>
@@ -1787,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·桑代克</t>
+    <t>爱德华·桑代克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%83%E7%BD%97%E5%BE%B7%E6%96%AF%C2%B7%E5%8D%8E%E7%94%9F</t>
@@ -1805,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E8%89%BE%E8%B3%93%E6%B5%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>赫爾曼·艾賓浩斯</t>
+    <t>赫尔曼·艾宾浩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%97%E8%A1%A8</t>
@@ -1829,13 +1808,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E6%A6%82%E8%A6%81</t>
   </si>
   <si>
-    <t>心理學概要</t>
+    <t>心理学概要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>心理療法</t>
+    <t>心理疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E6%B4%BE%E5%88%97%E8%A1%A8</t>
@@ -1865,19 +1844,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>族群選擇</t>
+    <t>族群选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>親屬選擇</t>
+    <t>亲属选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%A4%BE%E6%9C%83%E6%80%A7</t>
   </si>
   <si>
-    <t>真社會性</t>
+    <t>真社会性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B7%B4%E6%95%B0</t>
@@ -2805,7 +2784,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>55</v>
@@ -2831,10 +2810,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2860,10 +2839,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2918,10 +2897,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2947,10 +2926,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2976,10 +2955,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3005,10 +2984,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3034,10 +3013,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3063,10 +3042,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3092,10 +3071,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3121,10 +3100,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3150,10 +3129,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3179,10 +3158,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3208,10 +3187,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3237,10 +3216,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -3266,10 +3245,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -3295,10 +3274,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -3324,10 +3303,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3353,10 +3332,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3382,10 +3361,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3411,10 +3390,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3440,10 +3419,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3469,10 +3448,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3498,10 +3477,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3527,10 +3506,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3556,10 +3535,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3585,10 +3564,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3614,10 +3593,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3643,10 +3622,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3672,10 +3651,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3701,10 +3680,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3730,10 +3709,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3759,10 +3738,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3788,10 +3767,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3817,10 +3796,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3846,10 +3825,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3875,10 +3854,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3904,10 +3883,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>14</v>
@@ -3933,10 +3912,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>18</v>
@@ -3962,10 +3941,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3991,10 +3970,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -4020,10 +3999,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4049,10 +4028,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4078,10 +4057,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4107,10 +4086,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -4136,10 +4115,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4165,10 +4144,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4194,10 +4173,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4223,10 +4202,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4252,10 +4231,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4281,10 +4260,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>17</v>
@@ -4310,10 +4289,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4339,10 +4318,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4368,10 +4347,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4397,10 +4376,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4426,10 +4405,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4455,10 +4434,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4484,10 +4463,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4513,10 +4492,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4542,10 +4521,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4571,10 +4550,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4600,10 +4579,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4629,10 +4608,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4658,10 +4637,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4687,10 +4666,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4716,10 +4695,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4745,10 +4724,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4774,10 +4753,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4803,10 +4782,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4832,10 +4811,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4861,10 +4840,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4890,10 +4869,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4919,10 +4898,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4948,10 +4927,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4977,10 +4956,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5006,10 +4985,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5035,10 +5014,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5064,10 +5043,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5093,10 +5072,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5122,10 +5101,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5151,10 +5130,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5180,10 +5159,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5209,10 +5188,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5238,10 +5217,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5267,10 +5246,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5296,10 +5275,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5325,10 +5304,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5354,10 +5333,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5383,10 +5362,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5412,10 +5391,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5441,10 +5420,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5470,10 +5449,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5499,10 +5478,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5528,10 +5507,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5557,10 +5536,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5586,10 +5565,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5615,10 +5594,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5644,10 +5623,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5673,10 +5652,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5702,10 +5681,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5731,10 +5710,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5760,10 +5739,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5789,10 +5768,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5818,10 +5797,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5847,10 +5826,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5876,10 +5855,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F126" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5905,10 +5884,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5934,10 +5913,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5963,10 +5942,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5992,10 +5971,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6021,10 +6000,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6050,10 +6029,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6079,10 +6058,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6108,10 +6087,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6137,10 +6116,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6166,10 +6145,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6195,10 +6174,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6224,10 +6203,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6253,10 +6232,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6282,10 +6261,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6311,10 +6290,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6340,10 +6319,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6369,10 +6348,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6398,10 +6377,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6427,10 +6406,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6456,10 +6435,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6485,10 +6464,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F147" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6514,10 +6493,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6543,10 +6522,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6572,10 +6551,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6601,10 +6580,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6630,10 +6609,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6659,10 +6638,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6688,10 +6667,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6717,10 +6696,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6746,10 +6725,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6775,10 +6754,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6804,10 +6783,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F158" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6833,10 +6812,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6862,10 +6841,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F160" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6891,10 +6870,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F161" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6920,10 +6899,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6949,10 +6928,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6978,10 +6957,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7007,10 +6986,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7036,10 +7015,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7065,10 +7044,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7094,10 +7073,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7123,10 +7102,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7152,10 +7131,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7181,10 +7160,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7210,10 +7189,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7239,10 +7218,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7268,10 +7247,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7297,10 +7276,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7326,10 +7305,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7355,10 +7334,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7384,10 +7363,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7413,10 +7392,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7442,10 +7421,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7471,10 +7450,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7500,10 +7479,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7529,10 +7508,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7558,10 +7537,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7587,10 +7566,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7616,10 +7595,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7645,10 +7624,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7674,10 +7653,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7703,10 +7682,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7732,10 +7711,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7761,10 +7740,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7790,10 +7769,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -7819,10 +7798,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7848,10 +7827,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7877,10 +7856,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7906,10 +7885,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>6</v>
@@ -7935,10 +7914,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F197" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7964,10 +7943,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7993,10 +7972,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8022,10 +8001,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8051,10 +8030,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -8080,10 +8059,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8109,10 +8088,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8138,10 +8117,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F204" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G204" t="n">
         <v>86</v>
@@ -8167,10 +8146,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8196,10 +8175,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8225,10 +8204,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
@@ -8254,10 +8233,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -8283,10 +8262,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8312,10 +8291,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -8341,10 +8320,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>40</v>
@@ -8370,10 +8349,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8399,10 +8378,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8428,10 +8407,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8457,10 +8436,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8486,10 +8465,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8515,10 +8494,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8544,10 +8523,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8573,10 +8552,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8602,10 +8581,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8631,10 +8610,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8660,10 +8639,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8689,10 +8668,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8718,10 +8697,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8747,10 +8726,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8776,10 +8755,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8805,10 +8784,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8834,10 +8813,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8863,10 +8842,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8892,10 +8871,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8921,10 +8900,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8950,10 +8929,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8979,10 +8958,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9008,10 +8987,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9037,10 +9016,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9066,10 +9045,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9095,10 +9074,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9124,10 +9103,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9153,10 +9132,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9182,10 +9161,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9211,10 +9190,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9240,10 +9219,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9269,10 +9248,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9298,10 +9277,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9327,10 +9306,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9356,10 +9335,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F246" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9385,10 +9364,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9414,10 +9393,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9443,10 +9422,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9472,10 +9451,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9501,10 +9480,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9530,10 +9509,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9559,10 +9538,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9588,10 +9567,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9617,10 +9596,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9646,10 +9625,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9675,10 +9654,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9704,10 +9683,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9733,10 +9712,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9762,10 +9741,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9791,10 +9770,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9820,10 +9799,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9849,10 +9828,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9878,10 +9857,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9907,10 +9886,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9936,10 +9915,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9965,10 +9944,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9994,10 +9973,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10023,10 +10002,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10052,10 +10031,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10081,10 +10060,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10110,10 +10089,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10139,10 +10118,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10168,10 +10147,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10197,10 +10176,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10226,10 +10205,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10255,10 +10234,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10284,10 +10263,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10313,10 +10292,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10342,10 +10321,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10371,10 +10350,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10400,10 +10379,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10429,10 +10408,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10458,10 +10437,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10487,10 +10466,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10516,10 +10495,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10545,10 +10524,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10574,10 +10553,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10603,10 +10582,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10632,10 +10611,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10661,10 +10640,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10690,10 +10669,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10719,10 +10698,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10748,10 +10727,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10777,10 +10756,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10806,10 +10785,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10835,10 +10814,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10864,10 +10843,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10893,10 +10872,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10922,10 +10901,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10951,10 +10930,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10980,10 +10959,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11009,10 +10988,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11038,10 +11017,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11067,10 +11046,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11096,10 +11075,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11125,10 +11104,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11154,10 +11133,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F308" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11183,10 +11162,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>5</v>
@@ -11212,10 +11191,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11241,10 +11220,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11270,10 +11249,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11299,10 +11278,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11328,10 +11307,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11357,10 +11336,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11386,10 +11365,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11415,10 +11394,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11444,10 +11423,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F318" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11473,10 +11452,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11502,10 +11481,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11531,10 +11510,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11560,10 +11539,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
